--- a/Coleta de Dados (respostas).xlsx
+++ b/Coleta de Dados (respostas).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulino\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulino\Desktop\Jogos-Multiplayer-Offline-para-Smartphones---Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="542">
   <si>
     <t>Nome do jogo</t>
   </si>
@@ -2276,9 +2276,6 @@
 * Tamanho do pacote pequeno</t>
   </si>
   <si>
-    <t>DJ01, Não se enquadra nas definições</t>
-  </si>
-  <si>
     <t>Ludo Star</t>
   </si>
   <si>
@@ -2529,9 +2526,6 @@
     <t>DJ04, DJ05, DJ20, DJ21, DJ22, DJ24, DJ26, DJ31</t>
   </si>
   <si>
-    <t>Não identificado</t>
-  </si>
-  <si>
     <t>Até 8</t>
   </si>
   <si>
@@ -2788,6 +2782,9 @@
   </si>
   <si>
     <t>Snakes &amp; Ladders King</t>
+  </si>
+  <si>
+    <t>Não especificado</t>
   </si>
 </sst>
 </file>
@@ -3215,9 +3212,9 @@
   </sheetPr>
   <dimension ref="A1:V114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3231,9 +3228,12 @@
     <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.140625" style="3" customWidth="1"/>
     <col min="9" max="12" width="21.5703125" style="3" customWidth="1"/>
-    <col min="13" max="18" width="21.5703125" style="8" customWidth="1"/>
+    <col min="13" max="16" width="21.5703125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="24" style="8" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="36.7109375" style="7" customWidth="1"/>
-    <col min="20" max="21" width="21.5703125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" style="8" customWidth="1"/>
+    <col min="21" max="21" width="28" style="8" customWidth="1"/>
     <col min="22" max="22" width="21.5703125" style="1" customWidth="1"/>
     <col min="23" max="27" width="21.5703125" customWidth="1"/>
   </cols>
@@ -3333,7 +3333,7 @@
         <v>43406</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>25</v>
@@ -3357,7 +3357,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S2" s="14" t="s">
         <v>30</v>
@@ -3399,7 +3399,7 @@
         <v>43402</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>35</v>
@@ -3423,7 +3423,7 @@
         <v>29</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S3" s="14" t="s">
         <v>36</v>
@@ -3465,13 +3465,13 @@
         <v>43389</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>27</v>
@@ -3531,7 +3531,7 @@
         <v>43350</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>47</v>
@@ -3597,7 +3597,7 @@
         <v>42888</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>35</v>
@@ -3663,7 +3663,7 @@
         <v>43315</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>47</v>
@@ -3687,7 +3687,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S7" s="14" t="s">
         <v>66</v>
@@ -3729,7 +3729,7 @@
         <v>42398</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>25</v>
@@ -3795,7 +3795,7 @@
         <v>43380</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>78</v>
@@ -3819,7 +3819,7 @@
         <v>65</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>36</v>
@@ -3861,7 +3861,7 @@
         <v>42751</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>47</v>
@@ -3927,7 +3927,7 @@
         <v>42439</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>88</v>
@@ -3993,7 +3993,7 @@
         <v>43408</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>25</v>
@@ -4017,7 +4017,7 @@
         <v>29</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>93</v>
@@ -4059,7 +4059,7 @@
         <v>42796</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>88</v>
@@ -4083,7 +4083,7 @@
         <v>29</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S13" s="14" t="s">
         <v>97</v>
@@ -4125,7 +4125,7 @@
         <v>43136</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>35</v>
@@ -4149,7 +4149,7 @@
         <v>65</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S14" s="14" t="s">
         <v>36</v>
@@ -4191,13 +4191,13 @@
         <v>43087</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>27</v>
@@ -4215,7 +4215,7 @@
         <v>65</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>105</v>
@@ -4257,7 +4257,7 @@
         <v>43297</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>35</v>
@@ -4281,7 +4281,7 @@
         <v>29</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S16" s="14" t="s">
         <v>109</v>
@@ -4323,7 +4323,7 @@
         <v>43045</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>35</v>
@@ -4347,7 +4347,7 @@
         <v>29</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>114</v>
@@ -4389,7 +4389,7 @@
         <v>43166</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>88</v>
@@ -4413,7 +4413,7 @@
         <v>65</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S18" s="14" t="s">
         <v>120</v>
@@ -4455,7 +4455,7 @@
         <v>43419</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K19" s="10" t="s">
         <v>124</v>
@@ -4521,7 +4521,7 @@
         <v>42469</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>47</v>
@@ -4545,7 +4545,7 @@
         <v>65</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S20" s="14" t="s">
         <v>130</v>
@@ -4587,7 +4587,7 @@
         <v>43386</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>35</v>
@@ -4611,7 +4611,7 @@
         <v>65</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S21" s="14" t="s">
         <v>135</v>
@@ -4653,7 +4653,7 @@
         <v>43421</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>35</v>
@@ -4719,7 +4719,7 @@
         <v>43354</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>88</v>
@@ -4785,7 +4785,7 @@
         <v>43409</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>88</v>
@@ -4851,7 +4851,7 @@
         <v>43250</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>124</v>
@@ -4875,7 +4875,7 @@
         <v>29</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S25" s="14" t="s">
         <v>148</v>
@@ -4917,7 +4917,7 @@
         <v>43376</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>124</v>
@@ -4983,7 +4983,7 @@
         <v>43046</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>35</v>
@@ -5049,7 +5049,7 @@
         <v>43366</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>35</v>
@@ -5115,7 +5115,7 @@
         <v>43341</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>35</v>
@@ -5181,7 +5181,7 @@
         <v>43078</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>35</v>
@@ -5247,7 +5247,7 @@
         <v>42344</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>78</v>
@@ -5313,7 +5313,7 @@
         <v>43413</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>78</v>
@@ -5379,7 +5379,7 @@
         <v>43174</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>88</v>
@@ -5403,7 +5403,7 @@
         <v>65</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S33" s="14" t="s">
         <v>181</v>
@@ -5445,7 +5445,7 @@
         <v>43380</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>47</v>
@@ -5469,7 +5469,7 @@
         <v>65</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="S34" s="14" t="s">
         <v>185</v>
@@ -5511,7 +5511,7 @@
         <v>43364</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>47</v>
@@ -5577,7 +5577,7 @@
         <v>43419</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>78</v>
@@ -5601,7 +5601,7 @@
         <v>65</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S36" s="14" t="s">
         <v>192</v>
@@ -5643,7 +5643,7 @@
         <v>42995</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>35</v>
@@ -5709,7 +5709,7 @@
         <v>42117</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>35</v>
@@ -5775,7 +5775,7 @@
         <v>43418</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>25</v>
@@ -5841,7 +5841,7 @@
         <v>43388</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>47</v>
@@ -5907,7 +5907,7 @@
         <v>43402</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>25</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="42" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>183</v>
@@ -5973,7 +5973,7 @@
         <v>43411</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>35</v>
@@ -5997,7 +5997,7 @@
         <v>50</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S42" s="14" t="s">
         <v>212</v>
@@ -6039,7 +6039,7 @@
         <v>43314</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>78</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="44" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>117</v>
@@ -6105,7 +6105,7 @@
         <v>43339</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>25</v>
@@ -6129,7 +6129,7 @@
         <v>65</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S44" s="14" t="s">
         <v>185</v>
@@ -6171,7 +6171,7 @@
         <v>43406</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>220</v>
@@ -6195,7 +6195,7 @@
         <v>29</v>
       </c>
       <c r="R45" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S45" s="14" t="s">
         <v>221</v>
@@ -6237,7 +6237,7 @@
         <v>43417</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>78</v>
@@ -6303,7 +6303,7 @@
         <v>43421</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>88</v>
@@ -6369,7 +6369,7 @@
         <v>42776</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>47</v>
@@ -6393,7 +6393,7 @@
         <v>50</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S48" s="14" t="s">
         <v>234</v>
@@ -6435,7 +6435,7 @@
         <v>43372</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>35</v>
@@ -6459,7 +6459,7 @@
         <v>50</v>
       </c>
       <c r="R49" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S49" s="14" t="s">
         <v>83</v>
@@ -6501,7 +6501,7 @@
         <v>43244</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>25</v>
@@ -6567,7 +6567,7 @@
         <v>43418</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>47</v>
@@ -6591,7 +6591,7 @@
         <v>50</v>
       </c>
       <c r="R51" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S51" s="14" t="s">
         <v>246</v>
@@ -6633,7 +6633,7 @@
         <v>43416</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>124</v>
@@ -6657,7 +6657,7 @@
         <v>42</v>
       </c>
       <c r="R52" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S52" s="14" t="s">
         <v>250</v>
@@ -6699,7 +6699,7 @@
         <v>43403</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>35</v>
@@ -6765,7 +6765,7 @@
         <v>42740</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>35</v>
@@ -6789,7 +6789,7 @@
         <v>29</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S54" s="14" t="s">
         <v>257</v>
@@ -6831,7 +6831,7 @@
         <v>43410</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>35</v>
@@ -6897,7 +6897,7 @@
         <v>43419</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>25</v>
@@ -6963,7 +6963,7 @@
         <v>43303</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K57" s="10" t="s">
         <v>267</v>
@@ -7029,7 +7029,7 @@
         <v>43400</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K58" s="10" t="s">
         <v>35</v>
@@ -7053,7 +7053,7 @@
         <v>29</v>
       </c>
       <c r="R58" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S58" s="14" t="s">
         <v>273</v>
@@ -7095,7 +7095,7 @@
         <v>43042</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K59" s="10" t="s">
         <v>35</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="R59" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S59" s="14" t="s">
         <v>36</v>
@@ -7161,7 +7161,7 @@
         <v>43414</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K60" s="10" t="s">
         <v>88</v>
@@ -7185,7 +7185,7 @@
         <v>65</v>
       </c>
       <c r="R60" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S60" s="14" t="s">
         <v>36</v>
@@ -7227,7 +7227,7 @@
         <v>43399</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K61" s="10" t="s">
         <v>25</v>
@@ -7293,13 +7293,13 @@
         <v>43382</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M62" s="10" t="s">
         <v>27</v>
@@ -7359,7 +7359,7 @@
         <v>42893</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K63" s="10" t="s">
         <v>47</v>
@@ -7425,7 +7425,7 @@
         <v>43405</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>35</v>
@@ -7449,7 +7449,7 @@
         <v>29</v>
       </c>
       <c r="R64" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S64" s="14" t="s">
         <v>296</v>
@@ -7491,7 +7491,7 @@
         <v>42808</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K65" s="10" t="s">
         <v>35</v>
@@ -7515,7 +7515,7 @@
         <v>42</v>
       </c>
       <c r="R65" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S65" s="14" t="s">
         <v>301</v>
@@ -7557,7 +7557,7 @@
         <v>43416</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K66" s="10" t="s">
         <v>88</v>
@@ -7581,7 +7581,7 @@
         <v>29</v>
       </c>
       <c r="R66" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S66" s="14" t="s">
         <v>304</v>
@@ -7623,7 +7623,7 @@
         <v>43408</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>47</v>
@@ -7689,7 +7689,7 @@
         <v>43398</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K68" s="10" t="s">
         <v>124</v>
@@ -7713,7 +7713,7 @@
         <v>29</v>
       </c>
       <c r="R68" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S68" s="14" t="s">
         <v>135</v>
@@ -7755,7 +7755,7 @@
         <v>43408</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>35</v>
@@ -7821,7 +7821,7 @@
         <v>43193</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>88</v>
@@ -7845,7 +7845,7 @@
         <v>29</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S70" s="14" t="s">
         <v>66</v>
@@ -7887,7 +7887,7 @@
         <v>43244</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>88</v>
@@ -7953,7 +7953,7 @@
         <v>43412</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>35</v>
@@ -8019,7 +8019,7 @@
         <v>43423</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>35</v>
@@ -8043,7 +8043,7 @@
         <v>29</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S73" s="14" t="s">
         <v>329</v>
@@ -8085,7 +8085,7 @@
         <v>43341</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K74" s="10" t="s">
         <v>124</v>
@@ -8151,7 +8151,7 @@
         <v>43421</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K75" s="10" t="s">
         <v>25</v>
@@ -8175,7 +8175,7 @@
         <v>50</v>
       </c>
       <c r="R75" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S75" s="14" t="s">
         <v>334</v>
@@ -8217,7 +8217,7 @@
         <v>43320</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>35</v>
@@ -8241,7 +8241,7 @@
         <v>50</v>
       </c>
       <c r="R76" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S76" s="14" t="s">
         <v>337</v>
@@ -8283,7 +8283,7 @@
         <v>43398</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>25</v>
@@ -8307,7 +8307,7 @@
         <v>29</v>
       </c>
       <c r="R77" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S77" s="14" t="s">
         <v>135</v>
@@ -8349,7 +8349,7 @@
         <v>41910</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>47</v>
@@ -8415,7 +8415,7 @@
         <v>42799</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>35</v>
@@ -8439,7 +8439,7 @@
         <v>42</v>
       </c>
       <c r="R79" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S79" s="14" t="s">
         <v>346</v>
@@ -8481,7 +8481,7 @@
         <v>43341</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K80" s="10" t="s">
         <v>88</v>
@@ -8505,7 +8505,7 @@
         <v>29</v>
       </c>
       <c r="R80" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S80" s="14" t="s">
         <v>350</v>
@@ -8547,7 +8547,7 @@
         <v>43412</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K81" s="10" t="s">
         <v>47</v>
@@ -8571,7 +8571,7 @@
         <v>173</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S81" s="14" t="s">
         <v>353</v>
@@ -8613,7 +8613,7 @@
         <v>43370</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K82" s="10" t="s">
         <v>35</v>
@@ -8679,7 +8679,7 @@
         <v>42802</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>35</v>
@@ -8745,7 +8745,7 @@
         <v>43402</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>35</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="85" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>117</v>
@@ -8811,13 +8811,13 @@
         <v>43291</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K85" s="10" t="s">
         <v>88</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M85" s="10" t="s">
         <v>119</v>
@@ -8835,7 +8835,7 @@
         <v>50</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S85" s="14" t="s">
         <v>369</v>
@@ -8877,7 +8877,7 @@
         <v>43368</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K86" s="10" t="s">
         <v>25</v>
@@ -8943,7 +8943,7 @@
         <v>43391</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K87" s="10" t="s">
         <v>35</v>
@@ -8967,7 +8967,7 @@
         <v>50</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S87" s="14" t="s">
         <v>376</v>
@@ -9009,7 +9009,7 @@
         <v>43411</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K88" s="10" t="s">
         <v>35</v>
@@ -9075,7 +9075,7 @@
         <v>43297</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K89" s="10" t="s">
         <v>25</v>
@@ -9141,7 +9141,7 @@
         <v>42637</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>47</v>
@@ -9165,7 +9165,7 @@
         <v>42</v>
       </c>
       <c r="R90" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S90" s="14" t="s">
         <v>301</v>
@@ -9207,7 +9207,7 @@
         <v>43308</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>25</v>
@@ -9273,7 +9273,7 @@
         <v>43257</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>78</v>
@@ -9339,7 +9339,7 @@
         <v>42683</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K93" s="10" t="s">
         <v>35</v>
@@ -9405,7 +9405,7 @@
         <v>43411</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>88</v>
@@ -9471,7 +9471,7 @@
         <v>42365</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K95" s="10" t="s">
         <v>35</v>
@@ -9495,7 +9495,7 @@
         <v>29</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S95" s="14" t="s">
         <v>400</v>
@@ -9537,7 +9537,7 @@
         <v>43404</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>88</v>
@@ -9603,7 +9603,7 @@
         <v>43424</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K97" s="10" t="s">
         <v>25</v>
@@ -9627,7 +9627,7 @@
         <v>50</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S97" s="14" t="s">
         <v>406</v>
@@ -9669,7 +9669,7 @@
         <v>43244</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K98" s="10" t="s">
         <v>47</v>
@@ -9693,7 +9693,7 @@
         <v>50</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S98" s="14" t="s">
         <v>409</v>
@@ -9735,7 +9735,7 @@
         <v>43388</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K99" s="10" t="s">
         <v>88</v>
@@ -9801,7 +9801,7 @@
         <v>43348</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K100" s="10" t="s">
         <v>267</v>
@@ -9825,7 +9825,7 @@
         <v>50</v>
       </c>
       <c r="R100" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S100" s="14" t="s">
         <v>414</v>
@@ -9867,7 +9867,7 @@
         <v>43392</v>
       </c>
       <c r="J101" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>88</v>
@@ -9900,13 +9900,13 @@
         <v>67</v>
       </c>
       <c r="U101" s="10" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
       <c r="V101" s="15"/>
     </row>
     <row r="102" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>117</v>
@@ -9921,7 +9921,7 @@
         <v>23</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G102" s="10">
         <v>4.3</v>
@@ -9933,7 +9933,7 @@
         <v>43331</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K102" s="10" t="s">
         <v>47</v>
@@ -9957,10 +9957,10 @@
         <v>50</v>
       </c>
       <c r="R102" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S102" s="14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T102" s="10" t="s">
         <v>79</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="103" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>117</v>
@@ -9987,7 +9987,7 @@
         <v>40</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G103" s="10">
         <v>4.2</v>
@@ -9999,7 +9999,7 @@
         <v>43377</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K103" s="10" t="s">
         <v>35</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="104" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>70</v>
@@ -10053,7 +10053,7 @@
         <v>23</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G104" s="10">
         <v>4.5</v>
@@ -10065,7 +10065,7 @@
         <v>43412</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K104" s="10" t="s">
         <v>47</v>
@@ -10089,10 +10089,10 @@
         <v>50</v>
       </c>
       <c r="R104" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="S104" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T104" s="10" t="s">
         <v>67</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="105" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>117</v>
@@ -10119,7 +10119,7 @@
         <v>23</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G105" s="10">
         <v>4.2</v>
@@ -10131,7 +10131,7 @@
         <v>43388</v>
       </c>
       <c r="J105" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K105" s="10" t="s">
         <v>35</v>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="106" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>117</v>
@@ -10185,7 +10185,7 @@
         <v>40</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G106" s="10">
         <v>4</v>
@@ -10197,7 +10197,7 @@
         <v>43297</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K106" s="10" t="s">
         <v>35</v>
@@ -10224,7 +10224,7 @@
         <v>2</v>
       </c>
       <c r="S106" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T106" s="10" t="s">
         <v>79</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="107" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>117</v>
@@ -10251,7 +10251,7 @@
         <v>40</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G107" s="10">
         <v>4</v>
@@ -10263,7 +10263,7 @@
         <v>43399</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>47</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="S107" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T107" s="10" t="s">
         <v>59</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="108" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>22</v>
@@ -10317,7 +10317,7 @@
         <v>23</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G108" s="10">
         <v>4.4000000000000004</v>
@@ -10329,7 +10329,7 @@
         <v>43167</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K108" s="10" t="s">
         <v>220</v>
@@ -10353,7 +10353,7 @@
         <v>29</v>
       </c>
       <c r="R108" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S108" s="14" t="s">
         <v>109</v>
@@ -10368,7 +10368,7 @@
     </row>
     <row r="109" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>117</v>
@@ -10383,7 +10383,7 @@
         <v>40</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G109" s="10">
         <v>4.2</v>
@@ -10395,13 +10395,13 @@
         <v>43260</v>
       </c>
       <c r="J109" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K109" s="10" t="s">
         <v>35</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="M109" s="10" t="s">
         <v>119</v>
@@ -10422,7 +10422,7 @@
         <v>2</v>
       </c>
       <c r="S109" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T109" s="10" t="s">
         <v>59</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="110" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>86</v>
@@ -10449,7 +10449,7 @@
         <v>23</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G110" s="10">
         <v>4.2</v>
@@ -10461,7 +10461,7 @@
         <v>43291</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K110" s="10" t="s">
         <v>25</v>
@@ -10488,19 +10488,19 @@
         <v>2</v>
       </c>
       <c r="S110" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T110" s="10" t="s">
         <v>59</v>
       </c>
       <c r="U110" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="V110" s="15"/>
     </row>
     <row r="111" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>86</v>
@@ -10515,7 +10515,7 @@
         <v>23</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G111" s="10">
         <v>4.3</v>
@@ -10527,7 +10527,7 @@
         <v>43410</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K111" s="10" t="s">
         <v>25</v>
@@ -10560,13 +10560,13 @@
         <v>202</v>
       </c>
       <c r="U111" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V111" s="15"/>
     </row>
     <row r="112" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>86</v>
@@ -10581,7 +10581,7 @@
         <v>23</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G112" s="10">
         <v>4</v>
@@ -10593,7 +10593,7 @@
         <v>43291</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="K112" s="10" t="s">
         <v>25</v>
@@ -10620,19 +10620,19 @@
         <v>2</v>
       </c>
       <c r="S112" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="T112" s="10" t="s">
         <v>59</v>
       </c>
       <c r="U112" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="V112" s="15"/>
     </row>
     <row r="113" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>282</v>
@@ -10647,7 +10647,7 @@
         <v>23</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G113" s="10">
         <v>4.4000000000000004</v>
@@ -10659,7 +10659,7 @@
         <v>43390</v>
       </c>
       <c r="J113" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K113" s="10" t="s">
         <v>35</v>
@@ -10683,22 +10683,22 @@
         <v>42</v>
       </c>
       <c r="R113" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S113" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T113" s="10" t="s">
         <v>202</v>
       </c>
       <c r="U113" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="V113" s="15"/>
     </row>
     <row r="114" spans="1:22" s="16" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>22</v>
@@ -10713,7 +10713,7 @@
         <v>23</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G114" s="10">
         <v>4.0999999999999996</v>
@@ -10725,7 +10725,7 @@
         <v>43306</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K114" s="10" t="s">
         <v>35</v>
@@ -10749,7 +10749,7 @@
         <v>29</v>
       </c>
       <c r="R114" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="S114" s="14" t="s">
         <v>109</v>
@@ -10758,7 +10758,7 @@
         <v>31</v>
       </c>
       <c r="U114" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="V114" s="15"/>
     </row>
